--- a/medicine/Psychotrope/Infusion/Infusion.xlsx
+++ b/medicine/Psychotrope/Infusion/Infusion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'infusion est une méthode d'extraction des principes actifs ou des arômes d'un végétal par dissolution dans un liquide initialement bouillant que l'on laisse refroidir. Le solvant n'est pas nécessairement de l'eau, il peut être également une huile ou un alcool.
 Le terme désigne aussi les boissons préparées par cette méthode, comme les tisanes, le thé ou encore le maté par exemple.
-Dans ce cas, pour désinfecter l'eau et la plante, l'eau est généralement bouillie, puis rapidement versée sur la plante plus ou moins séchée ou fragmentée selon les cas. Mais certaines molécules seront mieux extraites et préservées à une température plus basse, utilisée en laboratoire pour analyser les composés hydrosolubles de la plante (40 °C par exemple pour extraire et analyser tous les polysaccharides)[1].
+Dans ce cas, pour désinfecter l'eau et la plante, l'eau est généralement bouillie, puis rapidement versée sur la plante plus ou moins séchée ou fragmentée selon les cas. Mais certaines molécules seront mieux extraites et préservées à une température plus basse, utilisée en laboratoire pour analyser les composés hydrosolubles de la plante (40 °C par exemple pour extraire et analyser tous les polysaccharides).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Différences avec la décoction et la macération</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'opération d'infusion s'oppose à :
 la décoction, dans laquelle le liquide est porté à ébullition puis maintenu bouillant ;
@@ -545,7 +559,9 @@
           <t>En brasserie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En brasserie, c'est l'un des deux principaux procédés de fabrication de la bière ; on en distingue deux types :
 l'infusion par palier : on chauffe l'eau avec la maische, ou on incorpore à intervalles réguliers de l'eau très chaude ;
